--- a/biology/Médecine/Classe_ATC_P03/Classe_ATC_P03.xlsx
+++ b/biology/Médecine/Classe_ATC_P03/Classe_ATC_P03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC P03, dénommée « Antiparasitaires externes, incluant scabicides et répulsifs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QP53-QP54[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique P de la classification, intitulé « Antiparasitaires, insecticides et répulsifs ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC P03, dénommée « Antiparasitaires externes, incluant scabicides et répulsifs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QP53-QP54. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique P de la classification, intitulé « Antiparasitaires, insecticides et répulsifs ».
 </t>
         </is>
       </c>
@@ -513,28 +525,135 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P03AA Dérivés soufrés
-P03AA01 Dixanthogène (en)
+          <t>P03AA Dérivés soufrés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P03AA01 Dixanthogène (en)
 P03AA02 Potassium polysulfite
 P03AA03 Mésulfène (en)
 P03AA04 Disulfirame
 P03AA05 Thirame
-P03AA54 Disulfirame, associations
-P03AB Dérivés chlorés
-P03AB01 Clofénotane
+P03AA54 Disulfirame, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P03A Antiparasitaires externes, scabicides inclus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P03AB Dérivés chlorés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P03AB01 Clofénotane
 P03AB02 Lindane
-P03AB51 Clofénotane, associations
-P03AC Pyréthrines, dérivés de synthèse inclus
-P03AC01 Pyrèthre
+P03AB51 Clofénotane, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P03A Antiparasitaires externes, scabicides inclus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P03AC Pyréthrines, dérivés de synthèse inclus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P03AC01 Pyrèthre
 P03AC02 Bioalléthrine
 P03AC03 Phénothrine (en)
 P03AC04 Perméthrine
 P03AC51 Pyrèthre, associations
 P03AC52 Bioalléthrine, associations
 P03AC53 Phénothrine, associations
-P03AC54 Perméthrine, associations
-P03AX Autres antiparasitaires externes, scabicides inclus
-P03AX01 Benzoate de benzyl
+P03AC54 Perméthrine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P03A Antiparasitaires externes, scabicides inclus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P03AX Autres antiparasitaires externes, scabicides inclus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P03AX01 Benzoate de benzyl
 P03AX02 Cuivre oléinate
 P03AX03 Malathion
 P03AX04 Quassia
@@ -543,39 +662,78 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Classe_ATC_P03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_P03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>P03B Insecticides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P03BA Pyréthrines
-P03BA01 Cyfluthrine
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P03BA Pyréthrines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P03BA01 Cyfluthrine
 P03BA02 Cyperméthrine
 P03BA03 Décaméthrine
-P03BA04 Tétraméthrine (en)
-P03BX Autres insecticides
-P03BX01 Diéthyltoluamide
+P03BA04 Tétraméthrine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P03B Insecticides</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P03BX Autres insecticides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P03BX01 Diéthyltoluamide
 P03BX02 Diméthylphtalate
 P03BX03 Dibutylphtalate
 P03BX04 Dibutylsuccinate
